--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Juanmi\Google Drive\Dropbox\Unirioja\Cuarto\Cuatri 2\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Juanmi\Dropbox\Unirioja\Cuarto\Cuatri 2\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,67 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>22-26</t>
-  </si>
-  <si>
-    <t>29-4</t>
-  </si>
-  <si>
-    <t>7-11</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>14-8</t>
-  </si>
-  <si>
-    <t>28-1</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>11-15</t>
-  </si>
-  <si>
-    <t>18-22</t>
-  </si>
-  <si>
-    <t>25-29</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>9-13</t>
-  </si>
-  <si>
-    <t>16-20</t>
-  </si>
-  <si>
-    <t>23-27</t>
-  </si>
-  <si>
-    <t>30-3</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Sprint 0</t>
   </si>
@@ -107,35 +47,54 @@
     <t>Sprint 6</t>
   </si>
   <si>
-    <t>Sprint 7</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T3, T4</t>
-  </si>
-  <si>
-    <t>Temas</t>
+    <t>Historias</t>
+  </si>
+  <si>
+    <t>H1.1, H1.2</t>
+  </si>
+  <si>
+    <t>H1.2, H2.1</t>
+  </si>
+  <si>
+    <t>H2.2</t>
+  </si>
+  <si>
+    <t>H2.3, H3.3</t>
+  </si>
+  <si>
+    <t>H3.1, H3.2</t>
+  </si>
+  <si>
+    <t>H3.4, H3.5</t>
+  </si>
+  <si>
+    <t>H1.2</t>
+  </si>
+  <si>
+    <t>H2.1, H2.2</t>
+  </si>
+  <si>
+    <t>H2.2, H2.3</t>
+  </si>
+  <si>
+    <t>H3.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,16 +137,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,108 +472,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S10"/>
+  <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="19" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="3:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -582,19 +551,19 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -605,21 +574,21 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -628,35 +597,35 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -665,21 +634,21 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -690,60 +659,199 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
